--- a/Overall_Rebate_Efficiency.xlsx
+++ b/Overall_Rebate_Efficiency.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cogentholdings-my.sharepoint.com/personal/john_tan_sh-cogent_com_sg/Documents/Documents/Linda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38B7C5C2-BCDD-4727-BBED-9A6509AFB655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{38B7C5C2-BCDD-4727-BBED-9A6509AFB655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B909A5C2-3B12-41C1-847A-82710A4F1CA7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
   </bookViews>
   <sheets>
     <sheet name="OverallRebateEfficiency" sheetId="1" r:id="rId1"/>
+    <sheet name="PSA_LOLO" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Overall_Rebate_Efficiency</t>
   </si>
@@ -108,6 +109,12 @@
   </si>
   <si>
     <t>Week_24</t>
+  </si>
+  <si>
+    <t>psa_lolo_20</t>
+  </si>
+  <si>
+    <t>psa_loll_40</t>
   </si>
 </sst>
 </file>
@@ -496,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8068D1-8FEE-4DE6-A49E-26630330CB1A}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -673,4 +680,35 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F588B96-5F90-4A9C-998D-1582689D455F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3900</v>
+      </c>
+      <c r="B2">
+        <v>6200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Overall_Rebate_Efficiency.xlsx
+++ b/Overall_Rebate_Efficiency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cogentholdings-my.sharepoint.com/personal/john_tan_sh-cogent_com_sg/Documents/Documents/Linda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{38B7C5C2-BCDD-4727-BBED-9A6509AFB655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B909A5C2-3B12-41C1-847A-82710A4F1CA7}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{38B7C5C2-BCDD-4727-BBED-9A6509AFB655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C855830-4F63-4AC2-8862-4564022EB2F4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
   </bookViews>
   <sheets>
     <sheet name="OverallRebateEfficiency" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>Overall_Rebate_Efficiency</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Week_2</t>
   </si>
@@ -501,37 +498,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8068D1-8FEE-4DE6-A49E-26630330CB1A}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="7.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="7.42578125" style="1" customWidth="1"/>
-    <col min="13" max="15" width="8" style="1" customWidth="1"/>
-    <col min="16" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="7.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.42578125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="7.85546875" style="1" customWidth="1"/>
-    <col min="25" max="29" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="7.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="7.42578125" style="1" customWidth="1"/>
+    <col min="12" max="14" width="8" style="1" customWidth="1"/>
+    <col min="15" max="16" width="7.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.85546875" style="1" customWidth="1"/>
+    <col min="24" max="28" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -598,81 +597,75 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0.81902758125101194</v>
       </c>
       <c r="B2" s="2">
-        <v>0.81902758125101194</v>
+        <v>0.70771875002575046</v>
       </c>
       <c r="C2" s="2">
-        <v>0.70771875002575046</v>
+        <v>0.8143757256676234</v>
       </c>
       <c r="D2" s="2">
-        <v>0.8143757256676234</v>
+        <v>0.86329223749621598</v>
       </c>
       <c r="E2" s="2">
-        <v>0.86329223749621598</v>
+        <v>0.72271733584093245</v>
       </c>
       <c r="F2" s="2">
-        <v>0.72271733584093245</v>
+        <v>0.80045199754182117</v>
       </c>
       <c r="G2" s="2">
-        <v>0.80045199754182117</v>
+        <v>0.81658725255829046</v>
       </c>
       <c r="H2" s="2">
-        <v>0.81658725255829046</v>
+        <v>0.70407064079442705</v>
       </c>
       <c r="I2" s="2">
-        <v>0.70407064079442705</v>
+        <v>0.78973223209760735</v>
       </c>
       <c r="J2" s="2">
-        <v>0.78973223209760735</v>
+        <v>0.66839334250536941</v>
       </c>
       <c r="K2" s="2">
-        <v>0.66839334250536941</v>
+        <v>0.76042716356387874</v>
       </c>
       <c r="L2" s="2">
-        <v>0.76042716356387874</v>
+        <v>0.75134139587460569</v>
       </c>
       <c r="M2" s="2">
-        <v>0.75134139587460569</v>
+        <v>0.76090901606098194</v>
       </c>
       <c r="N2" s="2">
-        <v>0.76090901606098194</v>
+        <v>0.78745377698122987</v>
       </c>
       <c r="O2" s="2">
-        <v>0.78745377698122987</v>
+        <v>0.783496890761745</v>
       </c>
       <c r="P2" s="2">
-        <v>0.783496890761745</v>
+        <v>0.78504855531571338</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.78504855531571338</v>
+        <v>0.72604132280915179</v>
       </c>
       <c r="R2" s="2">
-        <v>0.72604132280915179</v>
+        <v>0.70779427717954235</v>
       </c>
       <c r="S2" s="2">
-        <v>0.70779427717954235</v>
+        <v>0.72415889219129936</v>
       </c>
       <c r="T2" s="2">
-        <v>0.72415889219129936</v>
+        <v>0.74929222590181954</v>
       </c>
       <c r="U2" s="2">
-        <v>0.74929222590181954</v>
+        <v>0.81663576787600167</v>
       </c>
       <c r="V2" s="2">
-        <v>0.81663576787600167</v>
+        <v>0.77481098477947863</v>
       </c>
       <c r="W2" s="2">
-        <v>0.77481098477947863</v>
-      </c>
-      <c r="X2" s="2">
         <v>0.68286799137297094</v>
       </c>
     </row>
@@ -686,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F588B96-5F90-4A9C-998D-1582689D455F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -694,10 +687,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/Overall_Rebate_Efficiency.xlsx
+++ b/Overall_Rebate_Efficiency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cogentholdings-my.sharepoint.com/personal/john_tan_sh-cogent_com_sg/Documents/Documents/Linda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{38B7C5C2-BCDD-4727-BBED-9A6509AFB655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C855830-4F63-4AC2-8862-4564022EB2F4}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{38B7C5C2-BCDD-4727-BBED-9A6509AFB655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B29FCE1-B427-4439-84E1-F08D9E282CCD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
   </bookViews>
   <sheets>
     <sheet name="OverallRebateEfficiency" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
     <t>psa_lolo_20</t>
   </si>
   <si>
-    <t>psa_loll_40</t>
+    <t>psa_lolo_40</t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8068D1-8FEE-4DE6-A49E-26630330CB1A}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -679,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F588B96-5F90-4A9C-998D-1582689D455F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/Overall_Rebate_Efficiency.xlsx
+++ b/Overall_Rebate_Efficiency.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cogentholdings-my.sharepoint.com/personal/john_tan_sh-cogent_com_sg/Documents/Documents/Linda/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.tan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{38B7C5C2-BCDD-4727-BBED-9A6509AFB655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B29FCE1-B427-4439-84E1-F08D9E282CCD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA87E5A-2849-49F0-9FA4-0AEED1B24FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
+    <workbookView xWindow="25650" yWindow="4080" windowWidth="22215" windowHeight="10305" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
   </bookViews>
   <sheets>
     <sheet name="OverallRebateEfficiency" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Week_2</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>psa_lolo_40</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
   </si>
 </sst>
 </file>
@@ -498,16 +501,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8068D1-8FEE-4DE6-A49E-26630330CB1A}">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
     <col min="4" max="5" width="7.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
@@ -527,145 +528,192 @@
     <col min="24" max="28" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2">
+        <v>0.81902758125101194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="2">
+        <v>0.70771875002575046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B4" s="2">
+        <v>0.8143757256676234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B5" s="2">
+        <v>0.86329223749621598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B6" s="2">
+        <v>0.72271733584093245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B7" s="2">
+        <v>0.80045199754182117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B8" s="2">
+        <v>0.81658725255829046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B9" s="2">
+        <v>0.70407064079442705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B10" s="2">
+        <v>0.78973223209760735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B11" s="2">
+        <v>0.66839334250536941</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B12" s="2">
+        <v>0.76042716356387874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B13" s="2">
+        <v>0.75134139587460569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="B14" s="2">
+        <v>0.76090901606098194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="B15" s="2">
+        <v>0.78745377698122987</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="B16" s="2">
+        <v>0.783496890761745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="B17" s="2">
+        <v>0.78504855531571338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="B18" s="2">
+        <v>0.72604132280915179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="B19" s="2">
+        <v>0.70779427717954235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="B20" s="2">
+        <v>0.72415889219129936</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="B21" s="2">
+        <v>0.74929222590181954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="B22" s="2">
+        <v>0.81663576787600167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="B23" s="2">
+        <v>0.77481098477947863</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0.81902758125101194</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.70771875002575046</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.8143757256676234</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.86329223749621598</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.72271733584093245</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.80045199754182117</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.81658725255829046</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.70407064079442705</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.78973223209760735</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.66839334250536941</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.76042716356387874</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.75134139587460569</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.76090901606098194</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.78745377698122987</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0.783496890761745</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0.78504855531571338</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0.72604132280915179</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0.70779427717954235</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0.72415889219129936</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0.74929222590181954</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0.81663576787600167</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0.77481098477947863</v>
-      </c>
-      <c r="W2" s="2">
+      <c r="B24" s="2">
         <v>0.68286799137297094</v>
       </c>
     </row>
@@ -679,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F588B96-5F90-4A9C-998D-1582689D455F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/Overall_Rebate_Efficiency.xlsx
+++ b/Overall_Rebate_Efficiency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.tan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA87E5A-2849-49F0-9FA4-0AEED1B24FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835460ED-3903-4073-A5E2-D1071CD1C62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25650" yWindow="4080" windowWidth="22215" windowHeight="10305" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Week_2</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Week</t>
   </si>
 </sst>
 </file>
@@ -529,6 +532,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
       </c>

--- a/Overall_Rebate_Efficiency.xlsx
+++ b/Overall_Rebate_Efficiency.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.tan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835460ED-3903-4073-A5E2-D1071CD1C62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0279CCEA-E7EB-4263-8735-2905A0343C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25650" yWindow="4080" windowWidth="22215" windowHeight="10305" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
   </bookViews>
   <sheets>
     <sheet name="OverallRebateEfficiency" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Week_2</t>
   </si>
@@ -118,6 +118,24 @@
   </si>
   <si>
     <t>Week</t>
+  </si>
+  <si>
+    <t>Week_25</t>
+  </si>
+  <si>
+    <t>Week_26</t>
+  </si>
+  <si>
+    <t>Week_27</t>
+  </si>
+  <si>
+    <t>Week_28</t>
+  </si>
+  <si>
+    <t>Week_29</t>
+  </si>
+  <si>
+    <t>Week_30</t>
   </si>
 </sst>
 </file>
@@ -504,9 +522,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8068D1-8FEE-4DE6-A49E-26630330CB1A}">
-  <dimension ref="A1:AB24"/>
+  <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -723,6 +743,54 @@
         <v>0.68286799137297094</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.71750000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.75770000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.71870000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.72430000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.72189999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.77210000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -749,10 +817,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3900</v>
+        <v>40297</v>
       </c>
       <c r="B2">
-        <v>6200</v>
+        <v>22479</v>
       </c>
     </row>
   </sheetData>

--- a/Overall_Rebate_Efficiency.xlsx
+++ b/Overall_Rebate_Efficiency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.tan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0279CCEA-E7EB-4263-8735-2905A0343C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F636A6-6099-490E-9F9F-C878FB9C5C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
   </bookViews>
   <sheets>
     <sheet name="OverallRebateEfficiency" sheetId="1" r:id="rId1"/>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8068D1-8FEE-4DE6-A49E-26630330CB1A}">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F588B96-5F90-4A9C-998D-1582689D455F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -817,10 +817,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>40297</v>
+        <v>43297</v>
       </c>
       <c r="B2">
-        <v>22479</v>
+        <v>25479</v>
       </c>
     </row>
   </sheetData>

--- a/Overall_Rebate_Efficiency.xlsx
+++ b/Overall_Rebate_Efficiency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.tan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F636A6-6099-490E-9F9F-C878FB9C5C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A065A9-BD52-4F3B-9616-A79964FDAD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
   </bookViews>
@@ -817,10 +817,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>43297</v>
+        <v>38297</v>
       </c>
       <c r="B2">
-        <v>25479</v>
+        <v>20479</v>
       </c>
     </row>
   </sheetData>

--- a/Overall_Rebate_Efficiency.xlsx
+++ b/Overall_Rebate_Efficiency.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.tan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.tan\Documents\Linda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A065A9-BD52-4F3B-9616-A79964FDAD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ADF5CCD-5CE3-4A62-A108-E7ACF6732701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
   </bookViews>
@@ -817,10 +817,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>38297</v>
+        <v>41297</v>
       </c>
       <c r="B2">
-        <v>20479</v>
+        <v>23479</v>
       </c>
     </row>
   </sheetData>

--- a/Overall_Rebate_Efficiency.xlsx
+++ b/Overall_Rebate_Efficiency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.tan\Documents\Linda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ADF5CCD-5CE3-4A62-A108-E7ACF6732701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A0BA2A-6A0E-4B48-978A-045C8A169928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
   </bookViews>
@@ -817,10 +817,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>41297</v>
+        <v>39297</v>
       </c>
       <c r="B2">
-        <v>23479</v>
+        <v>20479</v>
       </c>
     </row>
   </sheetData>

--- a/Overall_Rebate_Efficiency.xlsx
+++ b/Overall_Rebate_Efficiency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.tan\Documents\Linda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A0BA2A-6A0E-4B48-978A-045C8A169928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29F1D34-E0B5-48B7-8F3A-C9FF3DEF1C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
   </bookViews>
@@ -817,10 +817,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>39297</v>
+        <v>39897</v>
       </c>
       <c r="B2">
-        <v>20479</v>
+        <v>20979</v>
       </c>
     </row>
   </sheetData>

--- a/Overall_Rebate_Efficiency.xlsx
+++ b/Overall_Rebate_Efficiency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.tan\Documents\Linda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29F1D34-E0B5-48B7-8F3A-C9FF3DEF1C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58CCE12-9F85-4517-850A-E93E7FC0B856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
   </bookViews>
@@ -817,10 +817,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>39897</v>
+        <v>38897</v>
       </c>
       <c r="B2">
-        <v>20979</v>
+        <v>18979</v>
       </c>
     </row>
   </sheetData>

--- a/Overall_Rebate_Efficiency.xlsx
+++ b/Overall_Rebate_Efficiency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.tan\Documents\Linda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58CCE12-9F85-4517-850A-E93E7FC0B856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002E16BD-6F23-40AF-9D83-6081775C21DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
   </bookViews>
@@ -817,10 +817,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>38897</v>
+        <v>36897</v>
       </c>
       <c r="B2">
-        <v>18979</v>
+        <v>16979</v>
       </c>
     </row>
   </sheetData>

--- a/Overall_Rebate_Efficiency.xlsx
+++ b/Overall_Rebate_Efficiency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.tan\Documents\Linda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002E16BD-6F23-40AF-9D83-6081775C21DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5665B4-A30B-4B9C-B2C0-8A9413723DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
   </bookViews>
@@ -817,10 +817,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>36897</v>
+        <v>32897</v>
       </c>
       <c r="B2">
-        <v>16979</v>
+        <v>16279</v>
       </c>
     </row>
   </sheetData>

--- a/Overall_Rebate_Efficiency.xlsx
+++ b/Overall_Rebate_Efficiency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.tan\Documents\Linda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5665B4-A30B-4B9C-B2C0-8A9413723DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7F67D0-6DEA-4761-9D84-486CF4F3FB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
   </bookViews>
@@ -817,10 +817,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>32897</v>
+        <v>30197</v>
       </c>
       <c r="B2">
-        <v>16279</v>
+        <v>15279</v>
       </c>
     </row>
   </sheetData>

--- a/Overall_Rebate_Efficiency.xlsx
+++ b/Overall_Rebate_Efficiency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.tan\Documents\Linda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.tan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7F67D0-6DEA-4761-9D84-486CF4F3FB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43D08D2-8D1D-45B5-AAF2-1CEB3B5029F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Week_2</t>
   </si>
@@ -108,12 +108,6 @@
     <t>Week_24</t>
   </si>
   <si>
-    <t>psa_lolo_20</t>
-  </si>
-  <si>
-    <t>psa_lolo_40</t>
-  </si>
-  <si>
     <t>Efficiency</t>
   </si>
   <si>
@@ -136,6 +130,9 @@
   </si>
   <si>
     <t>Week_30</t>
+  </si>
+  <si>
+    <t>PSALOLO</t>
   </si>
 </sst>
 </file>
@@ -553,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -745,7 +742,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>0.71750000000000003</v>
@@ -753,7 +750,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>0.75770000000000004</v>
@@ -761,7 +758,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>0.71870000000000001</v>
@@ -769,7 +766,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
         <v>0.72430000000000005</v>
@@ -777,7 +774,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1">
         <v>0.72189999999999999</v>
@@ -785,7 +782,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>0.77210000000000001</v>
@@ -799,27 +796,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F588B96-5F90-4A9C-998D-1582689D455F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
         <v>30197</v>
       </c>
-      <c r="B2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>40</v>
+      </c>
+      <c r="B3">
         <v>15279</v>
       </c>
     </row>

--- a/Overall_Rebate_Efficiency.xlsx
+++ b/Overall_Rebate_Efficiency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.tan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43D08D2-8D1D-45B5-AAF2-1CEB3B5029F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C47B14-D103-43C0-98EE-C0A172E21EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
+    <workbookView xWindow="30" yWindow="390" windowWidth="20460" windowHeight="10920" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
   </bookViews>
   <sheets>
     <sheet name="OverallRebateEfficiency" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Week_2</t>
   </si>
@@ -133,13 +133,28 @@
   </si>
   <si>
     <t>PSALOLO</t>
+  </si>
+  <si>
+    <t>Week_31</t>
+  </si>
+  <si>
+    <t>Week_32</t>
+  </si>
+  <si>
+    <t>Week_33</t>
+  </si>
+  <si>
+    <t>Week_34</t>
+  </si>
+  <si>
+    <t>Week_35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,36 +534,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8068D1-8FEE-4DE6-A49E-26630330CB1A}">
-  <dimension ref="A1:AB30"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="7.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="7.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="1" customWidth="1"/>
+    <col min="4" max="5" width="7.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="7.375" style="1" customWidth="1"/>
     <col min="12" max="14" width="8" style="1" customWidth="1"/>
-    <col min="15" max="16" width="7.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16" width="7.75" style="1" customWidth="1"/>
     <col min="17" max="17" width="8" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="7.75" style="1" customWidth="1"/>
     <col min="21" max="21" width="8" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.85546875" style="1" customWidth="1"/>
-    <col min="24" max="28" width="9.140625" style="1"/>
+    <col min="22" max="22" width="8.375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.875" style="1" customWidth="1"/>
+    <col min="24" max="28" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -556,7 +571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +579,7 @@
         <v>0.81902758125101194</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -572,7 +587,7 @@
         <v>0.70771875002575046</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -580,7 +595,7 @@
         <v>0.8143757256676234</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -588,7 +603,7 @@
         <v>0.86329223749621598</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -596,7 +611,7 @@
         <v>0.72271733584093245</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -604,7 +619,7 @@
         <v>0.80045199754182117</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -612,7 +627,7 @@
         <v>0.81658725255829046</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -620,7 +635,7 @@
         <v>0.70407064079442705</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -628,7 +643,7 @@
         <v>0.78973223209760735</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -636,7 +651,7 @@
         <v>0.66839334250536941</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -644,7 +659,7 @@
         <v>0.76042716356387874</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -652,7 +667,7 @@
         <v>0.75134139587460569</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -660,7 +675,7 @@
         <v>0.76090901606098194</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -668,7 +683,7 @@
         <v>0.78745377698122987</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -676,7 +691,7 @@
         <v>0.783496890761745</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -684,7 +699,7 @@
         <v>0.78504855531571338</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -692,7 +707,7 @@
         <v>0.72604132280915179</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -700,7 +715,7 @@
         <v>0.70779427717954235</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -708,7 +723,7 @@
         <v>0.72415889219129936</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -716,7 +731,7 @@
         <v>0.74929222590181954</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -724,7 +739,7 @@
         <v>0.81663576787600167</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -732,7 +747,7 @@
         <v>0.77481098477947863</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -740,7 +755,7 @@
         <v>0.68286799137297094</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -748,7 +763,7 @@
         <v>0.71750000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -756,7 +771,7 @@
         <v>0.75770000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -764,7 +779,7 @@
         <v>0.71870000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -772,7 +787,7 @@
         <v>0.72430000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -780,12 +795,52 @@
         <v>0.72189999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>0.77210000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.73399999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.86199999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.80400000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.7631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.78369999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -798,17 +853,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F588B96-5F90-4A9C-998D-1582689D455F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>20</v>
       </c>
@@ -816,7 +871,7 @@
         <v>30197</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>40</v>
       </c>

--- a/Overall_Rebate_Efficiency.xlsx
+++ b/Overall_Rebate_Efficiency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.tan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C47B14-D103-43C0-98EE-C0A172E21EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144207D7-6374-4C0F-900D-F7C21F8239A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="390" windowWidth="20460" windowHeight="10920" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
   </bookViews>
   <sheets>
     <sheet name="OverallRebateEfficiency" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8068D1-8FEE-4DE6-A49E-26630330CB1A}">
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -853,7 +853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F588B96-5F90-4A9C-998D-1582689D455F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
@@ -868,7 +868,7 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>30197</v>
+        <v>32214</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -876,7 +876,7 @@
         <v>40</v>
       </c>
       <c r="B3">
-        <v>15279</v>
+        <v>8142</v>
       </c>
     </row>
   </sheetData>
